--- a/Bullpens.xlsx
+++ b/Bullpens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i20461\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\MLB At Bat Sim\MLB-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B3FBC47-61F2-4D3C-9695-E65856A0F8D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC5E33-0EAF-49C4-A732-6C476EF81A93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LHPvLHH" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="BullpensUsage" sheetId="5" r:id="rId5"/>
     <sheet name="Bullpens" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -288,18 +288,6 @@
     <t>3bL</t>
   </si>
   <si>
-    <t>HRL</t>
-  </si>
-  <si>
-    <t>BBL</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>BOL</t>
-  </si>
-  <si>
     <t>1bR</t>
   </si>
   <si>
@@ -309,22 +297,34 @@
     <t>3bR</t>
   </si>
   <si>
-    <t>HRR</t>
-  </si>
-  <si>
-    <t>BBR</t>
-  </si>
-  <si>
-    <t>SOR</t>
-  </si>
-  <si>
-    <t>BOR</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Throws</t>
+  </si>
+  <si>
+    <t>hrL</t>
+  </si>
+  <si>
+    <t>bbL</t>
+  </si>
+  <si>
+    <t>kL</t>
+  </si>
+  <si>
+    <t>boL</t>
+  </si>
+  <si>
+    <t>hrR</t>
+  </si>
+  <si>
+    <t>bbR</t>
+  </si>
+  <si>
+    <t>kR</t>
+  </si>
+  <si>
+    <t>boR</t>
   </si>
 </sst>
 </file>
@@ -1171,9 +1171,9 @@
       <selection sqref="A1:AT31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0.63442902764012765</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0.59014537036705761</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0.69064886608756482</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0.62886902492948082</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0.67845710445074792</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0.58234618591407483</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0.56955788706241517</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0.70784369248194812</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0.62159915598324755</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>0.64155783786628318</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0.56834254422065811</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0.64902802878667154</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0.64583113679016513</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0.63312403136868856</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0.68770686463339381</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>0.58994479240103681</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0.62886548142529519</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0.59898569775783639</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>0.58544052147275316</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0.6022536303701469</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0.74451025111347269</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>0.65740230925783183</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0.65862601394318088</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0.66628525092350666</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>0.57349734740278668</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>0.60001882498851122</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>0.66022464486290056</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>0.57535960142501263</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>0.65379803986345109</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -6387,9 +6387,9 @@
       <selection sqref="A1:AT31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0.61797063835551969</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>0.55256617931067531</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0.54113290940541336</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>0.59489858935533091</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>0.57052606939554074</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0.50664548861570369</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>0.51553664082084771</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>0.59708139564432927</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>0.62189119473559518</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>0.51030381736782737</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>0.58927948062578506</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>0.60072541570311655</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>0.53570822429005749</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>0.51191863898488732</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>0.54633103132812644</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>0.60869756933362451</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>0.53243382374166481</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>0.56096676305007509</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>0.49076703451321535</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>0.5501997176922846</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>0.57837793194582088</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>0.6049517754840581</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>0.60513448131085368</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>0.62722549397024574</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>0.60431625573916392</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>0.57976279780319662</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>0.54753425135837086</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>0.50378262305913446</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>0.66513819067308244</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -11603,9 +11603,9 @@
       <selection sqref="A1:AT31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>0.58025386029550829</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>0.54681932237711728</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>0.58951761730631214</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>0.55169262249155548</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>0.59849187226980638</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>0.59954678166769348</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>0.54374538030626041</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>0.56741583088546199</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>0.61694979377638726</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>0.61365381469685454</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>0.56926109459310648</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>0.59229336762785723</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>0.61142420268249209</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>0.56504014476994502</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>0.65210990459950691</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>0.60897999283660398</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>0.66128201029444678</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>0.60422475434045742</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>0.5912062521642566</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>0.58095601128306784</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>0.67139339079067784</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>0.59366448234545799</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>0.5803704927259602</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>0.61671989134823635</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>0.57355829725628293</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>0.60589977558297159</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>0.58085087614609876</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>0.59674561105953849</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>0.66179296723751468</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -16819,9 +16819,9 @@
       <selection sqref="A1:AT31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>0.53239941648756695</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>0.51693149809608263</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>0.61068069396236258</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>0.53052924569740934</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>0.51584676341798552</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>0.52938800792864216</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>0.52971059209255067</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>0.54179156819394669</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>0.61692706815134379</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>0.59233005789571802</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>0.67078729058435682</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>0.63039907812311635</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>0.59575723252631085</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>0.53730690627156119</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>0.59264503654194645</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>0.53245528191766767</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>0.58771818452285074</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>0.51096759744169862</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>0.58727509905715092</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>0.4932507777625933</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>0.62256250041021532</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>0.60909185749308847</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>0.56796625644787457</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>0.54831466095204018</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>0.52265684786290478</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>0.55776175341467027</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>0.57547763558629272</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>0.56779014284400997</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -21854,7 +21854,7 @@
         <v>0.52462364381530457</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -22035,9 +22035,9 @@
       <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -22048,7 +22048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -22061,7 +22061,7 @@
         <v>0.84761904761904761</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -22074,7 +22074,7 @@
         <v>0.6870056497175141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -22087,7 +22087,7 @@
         <v>0.88786279683377312</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>0.59001314060446786</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -22113,7 +22113,7 @@
         <v>0.73023255813953492</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>0.86393088552915764</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>0.78518518518518521</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -22152,7 +22152,7 @@
         <v>0.76832151300236406</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>0.845771144278607</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>0.86737089201877937</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>0.74641833810888247</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -22204,7 +22204,7 @@
         <v>0.67412140575079871</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>0.70111287758346585</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>0.83554083885209718</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>0.62885154061624648</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>0.62109375</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>0.65375000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>0.7556237218813906</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>0.65810810810810816</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>0.86213786213786214</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -22321,7 +22321,7 @@
         <v>0.87918486171761279</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>0.70110701107011075</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -22347,7 +22347,7 @@
         <v>0.73156682027649766</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -22360,7 +22360,7 @@
         <v>0.69144460028050492</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>0.9028571428571428</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -22386,7 +22386,7 @@
         <v>0.79542857142857137</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>0.82929782082324455</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>0.80967078189300412</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>0.74078341013824889</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -22447,21 +22447,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
@@ -22473,40 +22471,40 @@
         <v>86</v>
       </c>
       <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" t="s">
-        <v>93</v>
-      </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -22570,7 +22568,7 @@
         <v>0.58025386029550829</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -22634,7 +22632,7 @@
         <v>0.54681932237711728</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -22698,7 +22696,7 @@
         <v>0.58951761730631214</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -22762,7 +22760,7 @@
         <v>0.55169262249155548</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -22826,7 +22824,7 @@
         <v>0.59849187226980638</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -22890,7 +22888,7 @@
         <v>0.59954678166769348</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -22954,7 +22952,7 @@
         <v>0.54374538030626041</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -23018,7 +23016,7 @@
         <v>0.56741583088546199</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -23082,7 +23080,7 @@
         <v>0.61694979377638726</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -23146,7 +23144,7 @@
         <v>0.61365381469685454</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -23210,7 +23208,7 @@
         <v>0.56926109459310648</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -23274,7 +23272,7 @@
         <v>0.59229336762785723</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -23338,7 +23336,7 @@
         <v>0.61142420268249209</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -23402,7 +23400,7 @@
         <v>0.56504014476994502</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -23466,7 +23464,7 @@
         <v>0.65210990459950691</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -23530,7 +23528,7 @@
         <v>0.60897999283660398</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -23594,7 +23592,7 @@
         <v>0.66128201029444678</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -23658,7 +23656,7 @@
         <v>0.60422475434045742</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -23722,7 +23720,7 @@
         <v>0.5912062521642566</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -23786,7 +23784,7 @@
         <v>0.58095601128306784</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -23850,7 +23848,7 @@
         <v>0.67139339079067784</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -23914,7 +23912,7 @@
         <v>0.59366448234545799</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -23978,7 +23976,7 @@
         <v>0.5803704927259602</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -24042,7 +24040,7 @@
         <v>0.61671989134823635</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -24106,7 +24104,7 @@
         <v>0.57355829725628293</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -24170,7 +24168,7 @@
         <v>0.60589977558297159</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -24234,7 +24232,7 @@
         <v>0.58085087614609876</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -24298,7 +24296,7 @@
         <v>0.59674561105953849</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -24362,7 +24360,7 @@
         <v>0.66179296723751468</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -24426,12 +24424,12 @@
         <v>0.59345519950078929</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <f>VLOOKUP($A32,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -24490,12 +24488,12 @@
         <v>0.61797063835551969</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C33">
         <f>VLOOKUP($A33,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -24554,12 +24552,12 @@
         <v>0.55256617931067531</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <f>VLOOKUP($A34,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -24618,12 +24616,12 @@
         <v>0.54113290940541336</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C35">
         <f>VLOOKUP($A35,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -24682,12 +24680,12 @@
         <v>0.59489858935533091</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <f>VLOOKUP($A36,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -24746,12 +24744,12 @@
         <v>0.57052606939554074</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C37">
         <f>VLOOKUP($A37,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -24810,12 +24808,12 @@
         <v>0.50664548861570369</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <f>VLOOKUP($A38,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -24874,12 +24872,12 @@
         <v>0.51553664082084771</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <f>VLOOKUP($A39,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -24938,12 +24936,12 @@
         <v>0.59708139564432927</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C40">
         <f>VLOOKUP($A40,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25002,12 +25000,12 @@
         <v>0.62189119473559518</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <f>VLOOKUP($A41,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25066,12 +25064,12 @@
         <v>0.51030381736782737</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C42">
         <f>VLOOKUP($A42,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25130,12 +25128,12 @@
         <v>0.58927948062578506</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <f>VLOOKUP($A43,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25194,12 +25192,12 @@
         <v>0.60072541570311655</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C44">
         <f>VLOOKUP($A44,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25258,12 +25256,12 @@
         <v>0.53570822429005749</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <f>VLOOKUP($A45,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25322,12 +25320,12 @@
         <v>0.51191863898488732</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <f>VLOOKUP($A46,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25386,12 +25384,12 @@
         <v>0.54633103132812644</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <f>VLOOKUP($A47,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25450,12 +25448,12 @@
         <v>0.60869756933362451</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C48">
         <f>VLOOKUP($A48,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25514,12 +25512,12 @@
         <v>0.53243382374166481</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C49">
         <f>VLOOKUP($A49,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25578,12 +25576,12 @@
         <v>0.56096676305007509</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C50">
         <f>VLOOKUP($A50,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25642,12 +25640,12 @@
         <v>0.49076703451321535</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C51">
         <f>VLOOKUP($A51,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25706,12 +25704,12 @@
         <v>0.5501997176922846</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C52">
         <f>VLOOKUP($A52,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25770,12 +25768,12 @@
         <v>0.57837793194582088</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <f>VLOOKUP($A53,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25834,12 +25832,12 @@
         <v>0.6049517754840581</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C54">
         <f>VLOOKUP($A54,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25898,12 +25896,12 @@
         <v>0.60513448131085368</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <f>VLOOKUP($A55,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -25962,12 +25960,12 @@
         <v>0.62722549397024574</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C56">
         <f>VLOOKUP($A56,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -26026,12 +26024,12 @@
         <v>0.60431625573916392</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C57">
         <f>VLOOKUP($A57,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -26090,12 +26088,12 @@
         <v>0.57976279780319662</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <f>VLOOKUP($A58,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -26154,12 +26152,12 @@
         <v>0.54753425135837086</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C59">
         <f>VLOOKUP($A59,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -26218,12 +26216,12 @@
         <v>0.50378262305913446</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C60">
         <f>VLOOKUP($A60,LHPvLHH!$B:$BA,46,FALSE)</f>
@@ -26282,12 +26280,12 @@
         <v>0.66513819067308244</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C61">
         <f>VLOOKUP($A61,LHPvLHH!$B:$BA,46,FALSE)</f>
